--- a/excel-prj/resource/Sample.xlsx
+++ b/excel-prj/resource/Sample.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\RND\excel-prj\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212B0547-572B-42C9-BE04-700DAB84B02F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A705B5B7-5C9F-4387-A2AC-A934964E8602}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,30 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>onetwo</t>
+    <t>two</t>
   </si>
   <si>
-    <t>one3</t>
+    <t>three</t>
   </si>
   <si>
-    <t>one4</t>
-  </si>
-  <si>
-    <t>two1</t>
-  </si>
-  <si>
-    <t>two2</t>
-  </si>
-  <si>
-    <t>two3</t>
-  </si>
-  <si>
-    <t>two4</t>
+    <t>four</t>
   </si>
 </sst>
 </file>
@@ -84,9 +72,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DE4B60-FAC4-440C-B777-3E5AB78BF6E4}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -376,7 +363,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -390,17 +377,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="A2">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
